--- a/Sufficient data WITH_PO/B07STNZF9L_fallback_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/B07STNZF9L_fallback_WITH_PO.xlsx
@@ -492,7 +492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -530,7 +530,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -606,7 +606,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -644,7 +644,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -720,7 +720,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
